--- a/tests/data/expected-file_example.xlsx
+++ b/tests/data/expected-file_example.xlsx
@@ -3,10 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr hidePivotFieldList="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="demo_sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
@@ -163,11 +164,14 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,4 +971,161 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>